--- a/Assets/ArtRes/Excel/RoleInfo.xlsx
+++ b/Assets/ArtRes/Excel/RoleInfo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Project\TowerDefenseGame\Assets\ArtRes\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitUpData\TowerDefenseGame\TowerDefenseGame\Assets\ArtRes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B56D3C5-248A-44CA-9D62-55146BE3C19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0448C3EA-DC1A-4B10-83EA-8B06F96FE03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5052" yWindow="1500" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -482,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -495,10 +495,10 @@
     <col min="4" max="4" width="11.109375" customWidth="1"/>
     <col min="5" max="5" width="10.44140625" customWidth="1"/>
     <col min="6" max="6" width="21.21875" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="7" max="8" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,8 +520,9 @@
       <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -543,8 +544,9 @@
       <c r="G2" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -566,8 +568,9 @@
       <c r="G3" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -589,8 +592,9 @@
       <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -612,8 +616,9 @@
       <c r="G5" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -635,8 +640,9 @@
       <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -658,8 +664,9 @@
       <c r="G7" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -681,8 +688,9 @@
       <c r="G8" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -704,13 +712,14 @@
       <c r="G9" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F14" s="1" t="s">
         <v>12</v>
       </c>
